--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -521,6 +521,9 @@
       <c r="C11" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F11" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -582,7 +585,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015152095861070</v>
+        <v>015152095861073</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,9 +525,89 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F12" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F13" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>556_马尾松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F17" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -585,7 +665,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015152095861073</v>
+        <v>015152095861073935555155100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -604,6 +604,9 @@
       <c r="C21" t="str">
         <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -665,7 +668,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015152095861073935555155100</v>
+        <v>015152095861073935555155105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,9 +608,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>369_芦苇叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -668,7 +748,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015152095861073935555155105</v>
+        <v>01515209586107393555515510555105510155100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -688,9 +688,77 @@
         <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>513_松虫草粉白_scabiosa rainbow_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>420_松虫草QQ糖_scabiosa white pink_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>515_松虫草紫红_scabiosa red_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>4</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F37" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -748,7 +816,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515209586107393555515510555105510155100</v>
+        <v>01515209586107393555515510555105510155100000015410330</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -755,6 +755,9 @@
       <c r="C41" t="str">
         <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -816,7 +819,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515209586107393555515510555105510155100000015410330</v>
+        <v>0151520958610739355551551055510551015510000001541033</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -756,12 +756,92 @@
         <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F41" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
         <v/>
+      </c>
+      <c r="C44" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F46" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F47" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F50" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -819,7 +899,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151520958610739355551551055510551015510000001541033</v>
+        <v>015152095861073935555155105551055101551000000154103385510101351030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -836,7 +836,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -838,6 +838,9 @@
       <c r="A51" t="str">
         <v>5</v>
       </c>
+      <c r="C51" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -841,6 +841,9 @@
       <c r="C51" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F51" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -902,7 +905,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015152095861073935555155105551055101551000000154103385510101351030</v>
+        <v>0151520958610739355551551055510551015510000001541033855101013510320</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,9 +845,72 @@
         <v>20</v>
       </c>
     </row>
+    <row r="52" xml:space="preserve">
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>481_重瓣菟葵粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -905,7 +968,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151520958610739355551551055510551015510000001541033855101013510320</v>
+        <v>015152095861073935555155105551055101551000000154103385510101351032051553000000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -882,35 +882,121 @@
       <c r="C56" t="str">
         <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F56" t="str">
+        <v>15</v>
+      </c>
     </row>
     <row r="57">
       <c r="C57" t="str">
         <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
       </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="C58" t="str">
         <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
       </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="59">
       <c r="C59" t="str">
         <v>585_洋牡丹红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F59" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="60">
       <c r="C60" t="str">
         <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
       </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="61">
       <c r="C61" t="str">
         <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>683_锦鲤红_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>681_锦鲤橙_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -968,7 +1054,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015152095861073935555155105551055101551000000154103385510101351032051553000000</v>
+        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010530000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -978,6 +978,9 @@
       <c r="C68" t="str">
         <v>683_锦鲤红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F68" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="C69" t="str">
@@ -1054,7 +1057,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010530000</v>
+        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -986,6 +986,9 @@
       <c r="C69" t="str">
         <v>681_锦鲤橙_undefined_undefined_1bunch</v>
       </c>
+      <c r="F69" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="C70" t="str">
@@ -1057,7 +1060,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533000</v>
+        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533300</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -994,6 +994,9 @@
       <c r="C70" t="str">
         <v>680_锦鲤黄_undefined_undefined_1bunch</v>
       </c>
+      <c r="F70" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="C71" t="str">
@@ -1060,7 +1063,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533300</v>
+        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533330</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -1002,6 +1002,9 @@
       <c r="C71" t="str">
         <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F71" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1063,7 +1066,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533330</v>
+        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533333</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1006,9 +1006,33 @@
         <v>3</v>
       </c>
     </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F73" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F74" t="str">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L74"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1066,7 +1090,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533333</v>
+        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533333333</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-11-21.xlsx
+++ b/DateBase/orders/Nha Thu_2024-11-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1030,9 +1030,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>6</v>
+      </c>
+      <c r="C75" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>352_贝壳叶_molucela_Moluccella laevis Pall._1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L76"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1090,7 +1109,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533333333</v>
+        <v>01515209586107393555515510555105510155100000015410338551010135103205155315510101055101010533333333105</v>
       </c>
     </row>
   </sheetData>
